--- a/biology/Botanique/Apocynum_×_floribundum/Apocynum_×_floribundum.xlsx
+++ b/biology/Botanique/Apocynum_×_floribundum/Apocynum_×_floribundum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apocynum_%C3%97_floribundum</t>
+          <t>Apocynum_×_floribundum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Apocynum × floribundum ou « Intermediate dogbane », l'apocyn intermédiaire, est une espèce de la famille des Apocynaceae. Il est répandu au Canada, aux États-Unis et dans le nord du Mexique[1],[2],[3],[4].
+Apocynum × floribundum ou « Intermediate dogbane », l'apocyn intermédiaire, est une espèce de la famille des Apocynaceae. Il est répandu au Canada, aux États-Unis et dans le nord du Mexique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apocynum_%C3%97_floribundum</t>
+          <t>Apocynum_×_floribundum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>On pense que l'apocyn intermédiaire est d'origine hybride car ses caractéristiques sont intermédiaires entre Apocynum cannabinum (dogbane) et Apocynum androsaemifolium (apocyn qui se propage)[1].
-Il a pour synonymes[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On pense que l'apocyn intermédiaire est d'origine hybride car ses caractéristiques sont intermédiaires entre Apocynum cannabinum (dogbane) et Apocynum androsaemifolium (apocyn qui se propage).
+Il a pour synonymes
 Apocynum × vestitum Greene 1894
 Apocynum × medium Greene 1897
 Apocynum × speciosum G.S.Mill. 1900
